--- a/ref_ProcessInvoice/Data/Config.xlsx
+++ b/ref_ProcessInvoice/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epam-my.sharepoint.com/personal/vitalii_rudkevych_epam_com/Documents/Documents/UiPath/GenerateYearlyReportUI/ref_ProcessInvoice/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8DFA85D9-4502-4B73-92BB-DE21EF151FDE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{498BC640-7675-4D73-8E21-BE39497CD8E4}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1440" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6555" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Killing processes:</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/vendors/search</t>
+  </si>
+  <si>
+    <t>AcmeInvoiceCheck</t>
+  </si>
+  <si>
+    <t>LogMessage_InternetConnectionCheck</t>
+  </si>
+  <si>
+    <t>AcmeHomePage</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/home</t>
   </si>
 </sst>
 </file>
@@ -553,16 +568,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -618,7 +633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.8">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -637,8 +652,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1633,9 +1662,10 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{94BFAC4B-6C7F-4D5E-A281-86D4175F51CC}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{E9847924-EA8A-4772-852A-36116EF8F9E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1643,16 +1673,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1689,7 +1719,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1822,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -2780,12 +2814,12 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
